--- a/spare_parts/p_spare.xlsx
+++ b/spare_parts/p_spare.xlsx
@@ -98,6 +98,12 @@
     <t>SAP № обладнання</t>
   </si>
   <si>
+    <t>anvil test</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
     <t>Брездень О.</t>
   </si>
   <si>
@@ -120,12 +126,6 @@
   </si>
   <si>
     <t>Мица В.</t>
-  </si>
-  <si>
-    <t>anvil test</t>
-  </si>
-  <si>
-    <t>1</t>
   </si>
 </sst>
 </file>
@@ -231,7 +231,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="25">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment vertical="center" wrapText="1"/>
@@ -255,7 +255,6 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="right"/>
     </xf>
@@ -268,8 +267,15 @@
     <xf applyAlignment="1" borderId="2" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf applyAlignment="1" borderId="3" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
@@ -285,9 +291,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf applyAlignment="1" borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -595,17 +598,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="18" width="10"/>
-    <col customWidth="1" max="2" min="2" style="18" width="12.140625"/>
-    <col customWidth="1" max="3" min="3" style="18" width="24.85546875"/>
-    <col customWidth="1" max="4" min="4" style="18" width="5.5703125"/>
-    <col customWidth="1" max="5" min="5" style="18" width="11.7109375"/>
-    <col customWidth="1" max="6" min="6" style="18" width="13"/>
-    <col customWidth="1" max="7" min="7" style="18" width="7.5703125"/>
+    <col customWidth="1" max="1" min="1" style="20" width="10"/>
+    <col customWidth="1" max="2" min="2" style="20" width="12.140625"/>
+    <col customWidth="1" max="3" min="3" style="20" width="24.85546875"/>
+    <col customWidth="1" max="4" min="4" style="20" width="5.5703125"/>
+    <col customWidth="1" max="5" min="5" style="20" width="11.7109375"/>
+    <col customWidth="1" max="6" min="6" style="20" width="13"/>
+    <col customWidth="1" max="7" min="7" style="20" width="7.5703125"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:7">
-      <c r="B2" s="20" t="s">
+      <c r="B2" s="22" t="s">
         <v>0</v>
       </c>
     </row>
@@ -629,7 +632,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="30.6" r="6" s="18" spans="1:7">
+    <row customHeight="1" ht="30.6" r="6" s="20" spans="1:7">
       <c r="A6" s="5" t="s">
         <v>6</v>
       </c>
@@ -812,17 +815,17 @@
       <c r="E24" s="8" t="n"/>
     </row>
     <row r="25" spans="1:7">
-      <c r="A25" s="17" t="s">
+      <c r="A25" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="19" t="s">
+      <c r="C25" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F25" s="17" t="s">
+      <c r="F25" s="19" t="s">
         <v>16</v>
       </c>
     </row>
-    <row customHeight="1" ht="14.45" r="26" s="18" spans="1:7"/>
+    <row customHeight="1" ht="14.45" r="26" s="20" spans="1:7"/>
     <row r="27" spans="1:7">
       <c r="A27" s="7" t="s">
         <v>17</v>
@@ -835,10 +838,10 @@
       <c r="G27" s="3" t="n"/>
     </row>
     <row r="28" spans="1:7">
-      <c r="A28" s="19" t="n"/>
+      <c r="A28" s="21" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="B29" s="20" t="s">
+      <c r="B29" s="22" t="s">
         <v>0</v>
       </c>
     </row>
@@ -862,7 +865,7 @@
         <v>5</v>
       </c>
     </row>
-    <row customHeight="1" ht="45" r="33" s="18" spans="1:7">
+    <row customHeight="1" ht="45" r="33" s="20" spans="1:7">
       <c r="A33" s="5" t="s">
         <v>6</v>
       </c>
@@ -1043,13 +1046,13 @@
       <c r="E51" s="8" t="n"/>
     </row>
     <row r="52" spans="1:7">
-      <c r="A52" s="17" t="s">
+      <c r="A52" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C52" s="19" t="s">
+      <c r="C52" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="F52" s="17" t="s">
+      <c r="F52" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1089,23 +1092,23 @@
   <dimension ref="A1:G29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I20" sqref="I20"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="18" width="13.85546875"/>
-    <col customWidth="1" max="2" min="2" style="18" width="15.5703125"/>
-    <col customWidth="1" max="3" min="3" style="18" width="18"/>
-    <col customWidth="1" max="4" min="4" style="22" width="9.140625"/>
-    <col customWidth="1" max="5" min="5" style="18" width="13.140625"/>
-    <col customWidth="1" max="6" min="6" style="18" width="14.28515625"/>
-    <col customWidth="1" max="7" min="7" style="18" width="10.42578125"/>
-    <col customWidth="1" max="8" min="8" style="18" width="3.28515625"/>
+    <col customWidth="1" max="1" min="1" style="20" width="13.85546875"/>
+    <col customWidth="1" max="2" min="2" style="20" width="15.5703125"/>
+    <col customWidth="1" max="3" min="3" style="20" width="18"/>
+    <col customWidth="1" max="4" min="4" style="24" width="9.140625"/>
+    <col customWidth="1" max="5" min="5" style="20" width="13.140625"/>
+    <col customWidth="1" max="6" min="6" style="20" width="14.28515625"/>
+    <col customWidth="1" max="7" min="7" style="20" width="10.42578125"/>
+    <col customWidth="1" max="8" min="8" style="20" width="3.28515625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="18" r="1" s="18" spans="1:7">
-      <c r="C1" s="13" t="s">
+    <row customHeight="1" ht="18" r="1" s="20" spans="1:7">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1126,17 +1129,17 @@
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>30</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="B3" s="13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="15" t="n">
+      <c r="F3" s="14" t="n">
         <v>3012</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="18" spans="1:7">
+    <row customHeight="1" ht="30" r="5" s="20" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1162,38 +1165,38 @@
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="n"/>
       <c r="B6" s="2" t="n">
-        <v>789654</v>
+        <v>999</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D6" s="23" t="s">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>80002222</v>
+        <v>80000571</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>600013</v>
+        <v>4</v>
       </c>
       <c r="G6" s="2" t="n"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="n"/>
       <c r="B7" s="2" t="n">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="D7" s="23" t="s">
-        <v>32</v>
+        <v>23</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>24</v>
       </c>
       <c r="E7" s="2" t="n">
-        <v>80002222</v>
+        <v>80002223</v>
       </c>
       <c r="F7" s="2" t="n">
-        <v>600014</v>
+        <v>1000002</v>
       </c>
       <c r="G7" s="2" t="n"/>
     </row>
@@ -1203,7 +1206,7 @@
         <v>13</v>
       </c>
       <c r="C8" s="2" t="n"/>
-      <c r="D8" s="23" t="n"/>
+      <c r="D8" s="15" t="n"/>
       <c r="E8" s="2" t="n"/>
       <c r="F8" s="2" t="n"/>
       <c r="G8" s="2" t="n"/>
@@ -1212,7 +1215,7 @@
       <c r="A9" s="2" t="n"/>
       <c r="B9" s="2" t="n"/>
       <c r="C9" s="2" t="n"/>
-      <c r="D9" s="23" t="n"/>
+      <c r="D9" s="15" t="n"/>
       <c r="E9" s="2" t="n"/>
       <c r="F9" s="2" t="n"/>
       <c r="G9" s="2" t="n"/>
@@ -1221,7 +1224,7 @@
       <c r="A10" s="2" t="n"/>
       <c r="B10" s="2" t="n"/>
       <c r="C10" s="2" t="n"/>
-      <c r="D10" s="23" t="n"/>
+      <c r="D10" s="15" t="n"/>
       <c r="E10" s="2" t="n"/>
       <c r="F10" s="2" t="n"/>
       <c r="G10" s="2" t="n"/>
@@ -1230,7 +1233,7 @@
       <c r="A11" s="2" t="n"/>
       <c r="B11" s="2" t="n"/>
       <c r="C11" s="2" t="n"/>
-      <c r="D11" s="23" t="n"/>
+      <c r="D11" s="15" t="n"/>
       <c r="E11" s="2" t="n"/>
       <c r="F11" s="2" t="n"/>
       <c r="G11" s="2" t="n"/>
@@ -1239,7 +1242,7 @@
       <c r="A12" s="2" t="n"/>
       <c r="B12" s="2" t="n"/>
       <c r="C12" s="2" t="n"/>
-      <c r="D12" s="23" t="n"/>
+      <c r="D12" s="15" t="n"/>
       <c r="E12" s="2" t="n"/>
       <c r="F12" s="2" t="n"/>
       <c r="G12" s="2" t="n"/>
@@ -1248,7 +1251,7 @@
       <c r="A13" s="2" t="n"/>
       <c r="B13" s="2" t="n"/>
       <c r="C13" s="2" t="n"/>
-      <c r="D13" s="23" t="n"/>
+      <c r="D13" s="15" t="n"/>
       <c r="E13" s="2" t="n"/>
       <c r="F13" s="2" t="n"/>
       <c r="G13" s="2" t="n"/>
@@ -1257,7 +1260,7 @@
       <c r="A14" s="2" t="n"/>
       <c r="B14" s="2" t="n"/>
       <c r="C14" s="2" t="n"/>
-      <c r="D14" s="23" t="n"/>
+      <c r="D14" s="15" t="n"/>
       <c r="E14" s="2" t="n"/>
       <c r="F14" s="2" t="n"/>
       <c r="G14" s="2" t="n"/>
@@ -1266,7 +1269,7 @@
       <c r="A15" s="2" t="n"/>
       <c r="B15" s="2" t="n"/>
       <c r="C15" s="2" t="n"/>
-      <c r="D15" s="23" t="n"/>
+      <c r="D15" s="15" t="n"/>
       <c r="E15" s="2" t="n"/>
       <c r="F15" s="2" t="n"/>
       <c r="G15" s="2" t="n"/>
@@ -1275,7 +1278,7 @@
       <c r="A16" s="2" t="n"/>
       <c r="B16" s="2" t="n"/>
       <c r="C16" s="2" t="n"/>
-      <c r="D16" s="23" t="n"/>
+      <c r="D16" s="15" t="n"/>
       <c r="E16" s="2" t="n"/>
       <c r="F16" s="2" t="n"/>
       <c r="G16" s="2" t="n"/>
@@ -1284,7 +1287,7 @@
       <c r="A17" s="2" t="n"/>
       <c r="B17" s="2" t="n"/>
       <c r="C17" s="2" t="n"/>
-      <c r="D17" s="23" t="n"/>
+      <c r="D17" s="15" t="n"/>
       <c r="E17" s="2" t="n"/>
       <c r="F17" s="2" t="n"/>
       <c r="G17" s="2" t="n"/>
@@ -1293,7 +1296,7 @@
       <c r="A18" s="2" t="n"/>
       <c r="B18" s="2" t="n"/>
       <c r="C18" s="2" t="n"/>
-      <c r="D18" s="23" t="n"/>
+      <c r="D18" s="15" t="n"/>
       <c r="E18" s="2" t="n"/>
       <c r="F18" s="2" t="n"/>
       <c r="G18" s="2" t="n"/>
@@ -1302,7 +1305,7 @@
       <c r="A19" s="2" t="n"/>
       <c r="B19" s="2" t="n"/>
       <c r="C19" s="2" t="n"/>
-      <c r="D19" s="23" t="n"/>
+      <c r="D19" s="15" t="n"/>
       <c r="E19" s="2" t="n"/>
       <c r="F19" s="2" t="n"/>
       <c r="G19" s="2" t="n"/>
@@ -1311,7 +1314,7 @@
       <c r="A20" s="2" t="n"/>
       <c r="B20" s="2" t="n"/>
       <c r="C20" s="2" t="n"/>
-      <c r="D20" s="23" t="n"/>
+      <c r="D20" s="15" t="n"/>
       <c r="E20" s="2" t="n"/>
       <c r="F20" s="2" t="n"/>
       <c r="G20" s="2" t="n"/>
@@ -1320,7 +1323,7 @@
       <c r="A21" s="2" t="n"/>
       <c r="B21" s="2" t="n"/>
       <c r="C21" s="2" t="n"/>
-      <c r="D21" s="23" t="n"/>
+      <c r="D21" s="15" t="n"/>
       <c r="E21" s="2" t="n"/>
       <c r="F21" s="2" t="n"/>
       <c r="G21" s="2" t="n"/>
@@ -1329,7 +1332,7 @@
       <c r="A22" s="2" t="n"/>
       <c r="B22" s="2" t="n"/>
       <c r="C22" s="2" t="n"/>
-      <c r="D22" s="23" t="n"/>
+      <c r="D22" s="15" t="n"/>
       <c r="E22" s="2" t="n"/>
       <c r="F22" s="2" t="n"/>
       <c r="G22" s="2" t="n"/>
@@ -1338,7 +1341,7 @@
       <c r="A23" s="2" t="n"/>
       <c r="B23" s="2" t="n"/>
       <c r="C23" s="2" t="n"/>
-      <c r="D23" s="23" t="n"/>
+      <c r="D23" s="15" t="n"/>
       <c r="E23" s="2" t="n"/>
       <c r="F23" s="2" t="n"/>
       <c r="G23" s="2" t="n"/>
@@ -1347,7 +1350,7 @@
       <c r="A24" s="2" t="n"/>
       <c r="B24" s="2" t="n"/>
       <c r="C24" s="2" t="n"/>
-      <c r="D24" s="23" t="n"/>
+      <c r="D24" s="15" t="n"/>
       <c r="E24" s="2" t="n"/>
       <c r="F24" s="2" t="n"/>
       <c r="G24" s="2" t="n"/>
@@ -1356,7 +1359,7 @@
       <c r="A25" s="2" t="n"/>
       <c r="B25" s="2" t="n"/>
       <c r="C25" s="2" t="n"/>
-      <c r="D25" s="23" t="n"/>
+      <c r="D25" s="15" t="n"/>
       <c r="E25" s="2" t="n"/>
       <c r="F25" s="2" t="n"/>
       <c r="G25" s="2" t="n"/>
@@ -1365,19 +1368,19 @@
       <c r="A26" s="2" t="n"/>
       <c r="B26" s="2" t="n"/>
       <c r="C26" s="2" t="n"/>
-      <c r="D26" s="23" t="n"/>
+      <c r="D26" s="15" t="n"/>
       <c r="E26" s="2" t="n"/>
       <c r="F26" s="2" t="n"/>
       <c r="G26" s="2" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1406,17 +1409,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="18" width="13.7109375"/>
-    <col customWidth="1" max="2" min="2" style="18" width="15.5703125"/>
-    <col customWidth="1" max="3" min="3" style="18" width="18"/>
-    <col customWidth="1" max="5" min="5" style="18" width="13.140625"/>
-    <col customWidth="1" max="6" min="6" style="18" width="14.28515625"/>
-    <col customWidth="1" max="7" min="7" style="18" width="10.42578125"/>
-    <col customWidth="1" max="8" min="8" style="18" width="2.42578125"/>
+    <col customWidth="1" max="1" min="1" style="20" width="13.7109375"/>
+    <col customWidth="1" max="2" min="2" style="20" width="15.5703125"/>
+    <col customWidth="1" max="3" min="3" style="20" width="18"/>
+    <col customWidth="1" max="5" min="5" style="20" width="13.140625"/>
+    <col customWidth="1" max="6" min="6" style="20" width="14.28515625"/>
+    <col customWidth="1" max="7" min="7" style="20" width="10.42578125"/>
+    <col customWidth="1" max="8" min="8" style="20" width="2.42578125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="18" r="1" s="18" spans="1:7">
-      <c r="C1" s="13" t="s">
+    <row customHeight="1" ht="18" r="1" s="20" spans="1:7">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1437,17 +1440,17 @@
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="15" t="n">
+      <c r="F3" s="14" t="n">
         <v>3070</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="18" spans="1:7">
+    <row customHeight="1" ht="30" r="5" s="20" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1662,13 +1665,13 @@
       <c r="G26" s="2" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1696,17 +1699,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="18" width="13.7109375"/>
-    <col customWidth="1" max="2" min="2" style="18" width="15.5703125"/>
-    <col customWidth="1" max="3" min="3" style="18" width="18"/>
-    <col customWidth="1" max="5" min="5" style="18" width="13.140625"/>
-    <col customWidth="1" max="6" min="6" style="18" width="14.28515625"/>
-    <col customWidth="1" max="7" min="7" style="18" width="10.42578125"/>
-    <col customWidth="1" max="8" min="8" style="18" width="2.42578125"/>
+    <col customWidth="1" max="1" min="1" style="20" width="13.7109375"/>
+    <col customWidth="1" max="2" min="2" style="20" width="15.5703125"/>
+    <col customWidth="1" max="3" min="3" style="20" width="18"/>
+    <col customWidth="1" max="5" min="5" style="20" width="13.140625"/>
+    <col customWidth="1" max="6" min="6" style="20" width="14.28515625"/>
+    <col customWidth="1" max="7" min="7" style="20" width="10.42578125"/>
+    <col customWidth="1" max="8" min="8" style="20" width="2.42578125"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="18" r="1" s="18" spans="1:7">
-      <c r="C1" s="13" t="s">
+    <row customHeight="1" ht="18" r="1" s="20" spans="1:7">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -1727,17 +1730,17 @@
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="14" t="s">
+      <c r="B3" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E3" s="12" t="s">
+      <c r="E3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="15" t="n">
+      <c r="F3" s="14" t="n">
         <v>3070</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="18" spans="1:7">
+    <row customHeight="1" ht="30" r="5" s="20" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -1762,18 +1765,28 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="n"/>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
+      <c r="B6" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>80001111</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>1</v>
+      </c>
       <c r="G6" s="2" t="n"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="n"/>
+      <c r="B7" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C7" s="2" t="n"/>
       <c r="D7" s="2" t="n"/>
       <c r="E7" s="2" t="n"/>
@@ -1952,13 +1965,13 @@
       <c r="G26" s="2" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -1987,17 +2000,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="18" width="12.85546875"/>
-    <col customWidth="1" max="2" min="2" style="18" width="15.5703125"/>
-    <col customWidth="1" max="3" min="3" style="18" width="18"/>
-    <col customWidth="1" max="5" min="5" style="18" width="13.140625"/>
-    <col customWidth="1" max="6" min="6" style="18" width="14.28515625"/>
-    <col customWidth="1" max="7" min="7" style="18" width="10.42578125"/>
-    <col customWidth="1" max="8" min="8" style="18" width="3.28515625"/>
+    <col customWidth="1" max="1" min="1" style="20" width="12.85546875"/>
+    <col customWidth="1" max="2" min="2" style="20" width="15.5703125"/>
+    <col customWidth="1" max="3" min="3" style="20" width="18"/>
+    <col customWidth="1" max="5" min="5" style="20" width="13.140625"/>
+    <col customWidth="1" max="6" min="6" style="20" width="14.28515625"/>
+    <col customWidth="1" max="7" min="7" style="20" width="10.42578125"/>
+    <col customWidth="1" max="8" min="8" style="20" width="3.28515625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="18" r="1" s="18" spans="1:7">
-      <c r="C1" s="13" t="s">
+    <row customHeight="1" ht="18" r="1" s="20" spans="1:7">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2018,17 +2031,17 @@
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>23</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="B3" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="15" t="n">
+      <c r="F3" s="14" t="n">
         <v>5432</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="18" spans="1:7">
+    <row customHeight="1" ht="30" r="5" s="20" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -2243,13 +2256,13 @@
       <c r="G26" s="2" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2278,17 +2291,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="18" width="12.85546875"/>
-    <col customWidth="1" max="2" min="2" style="18" width="15.5703125"/>
-    <col customWidth="1" max="3" min="3" style="18" width="18"/>
-    <col customWidth="1" max="5" min="5" style="18" width="13.140625"/>
-    <col customWidth="1" max="6" min="6" style="18" width="14.28515625"/>
-    <col customWidth="1" max="7" min="7" style="18" width="10.42578125"/>
-    <col customWidth="1" max="8" min="8" style="18" width="3.28515625"/>
+    <col customWidth="1" max="1" min="1" style="20" width="12.85546875"/>
+    <col customWidth="1" max="2" min="2" style="20" width="15.5703125"/>
+    <col customWidth="1" max="3" min="3" style="20" width="18"/>
+    <col customWidth="1" max="5" min="5" style="20" width="13.140625"/>
+    <col customWidth="1" max="6" min="6" style="20" width="14.28515625"/>
+    <col customWidth="1" max="7" min="7" style="20" width="10.42578125"/>
+    <col customWidth="1" max="8" min="8" style="20" width="3.28515625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="18" r="1" s="18" spans="1:7">
-      <c r="C1" s="13" t="s">
+    <row customHeight="1" ht="18" r="1" s="20" spans="1:7">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2309,17 +2322,17 @@
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="B3" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="15" t="n">
+      <c r="F3" s="14" t="n">
         <v>5184</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="18" spans="1:7">
+    <row customHeight="1" ht="30" r="5" s="20" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -2534,13 +2547,13 @@
       <c r="G26" s="2" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2569,17 +2582,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="18" width="12.85546875"/>
-    <col customWidth="1" max="2" min="2" style="18" width="15.5703125"/>
-    <col customWidth="1" max="3" min="3" style="18" width="18"/>
-    <col customWidth="1" max="5" min="5" style="18" width="13.140625"/>
-    <col customWidth="1" max="6" min="6" style="18" width="14.28515625"/>
-    <col customWidth="1" max="7" min="7" style="18" width="10.42578125"/>
-    <col customWidth="1" max="8" min="8" style="18" width="3.28515625"/>
+    <col customWidth="1" max="1" min="1" style="20" width="12.85546875"/>
+    <col customWidth="1" max="2" min="2" style="20" width="15.5703125"/>
+    <col customWidth="1" max="3" min="3" style="20" width="18"/>
+    <col customWidth="1" max="5" min="5" style="20" width="13.140625"/>
+    <col customWidth="1" max="6" min="6" style="20" width="14.28515625"/>
+    <col customWidth="1" max="7" min="7" style="20" width="10.42578125"/>
+    <col customWidth="1" max="8" min="8" style="20" width="3.28515625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="18" r="1" s="18" spans="1:7">
-      <c r="C1" s="13" t="s">
+    <row customHeight="1" ht="18" r="1" s="20" spans="1:7">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2600,17 +2613,17 @@
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>25</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="B3" s="13" t="s">
+        <v>27</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="15" t="n">
+      <c r="F3" s="14" t="n">
         <v>2065</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="18" spans="1:7">
+    <row customHeight="1" ht="30" r="5" s="20" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -2825,13 +2838,13 @@
       <c r="G26" s="2" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -2860,17 +2873,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="18" width="12.85546875"/>
-    <col customWidth="1" max="2" min="2" style="18" width="15.5703125"/>
-    <col customWidth="1" max="3" min="3" style="18" width="18"/>
-    <col customWidth="1" max="5" min="5" style="18" width="13.140625"/>
-    <col customWidth="1" max="6" min="6" style="18" width="14.28515625"/>
-    <col customWidth="1" max="7" min="7" style="18" width="10.42578125"/>
-    <col customWidth="1" max="8" min="8" style="18" width="3.28515625"/>
+    <col customWidth="1" max="1" min="1" style="20" width="12.85546875"/>
+    <col customWidth="1" max="2" min="2" style="20" width="15.5703125"/>
+    <col customWidth="1" max="3" min="3" style="20" width="18"/>
+    <col customWidth="1" max="5" min="5" style="20" width="13.140625"/>
+    <col customWidth="1" max="6" min="6" style="20" width="14.28515625"/>
+    <col customWidth="1" max="7" min="7" style="20" width="10.42578125"/>
+    <col customWidth="1" max="8" min="8" style="20" width="3.28515625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="18" r="1" s="18" spans="1:7">
-      <c r="C1" s="13" t="s">
+    <row customHeight="1" ht="18" r="1" s="20" spans="1:7">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2891,17 +2904,17 @@
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="B3" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="15" t="n">
+      <c r="F3" s="14" t="n">
         <v>3067</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="18" spans="1:7">
+    <row customHeight="1" ht="30" r="5" s="20" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -3116,13 +3129,13 @@
       <c r="G26" s="2" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3151,17 +3164,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="18" width="12.85546875"/>
-    <col customWidth="1" max="2" min="2" style="18" width="15.5703125"/>
-    <col customWidth="1" max="3" min="3" style="18" width="18"/>
-    <col customWidth="1" max="5" min="5" style="18" width="13.140625"/>
-    <col customWidth="1" max="6" min="6" style="18" width="14.28515625"/>
-    <col customWidth="1" max="7" min="7" style="18" width="10.42578125"/>
-    <col customWidth="1" max="8" min="8" style="18" width="3.28515625"/>
+    <col customWidth="1" max="1" min="1" style="20" width="12.85546875"/>
+    <col customWidth="1" max="2" min="2" style="20" width="15.5703125"/>
+    <col customWidth="1" max="3" min="3" style="20" width="18"/>
+    <col customWidth="1" max="5" min="5" style="20" width="13.140625"/>
+    <col customWidth="1" max="6" min="6" style="20" width="14.28515625"/>
+    <col customWidth="1" max="7" min="7" style="20" width="10.42578125"/>
+    <col customWidth="1" max="8" min="8" style="20" width="3.28515625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="18" r="1" s="18" spans="1:7">
-      <c r="C1" s="13" t="s">
+    <row customHeight="1" ht="18" r="1" s="20" spans="1:7">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3182,17 +3195,17 @@
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>27</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="B3" s="13" t="s">
+        <v>29</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="15" t="n">
+      <c r="F3" s="14" t="n">
         <v>5597</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="18" spans="1:7">
+    <row customHeight="1" ht="30" r="5" s="20" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -3407,13 +3420,13 @@
       <c r="G26" s="2" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3442,17 +3455,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="18" width="12.85546875"/>
-    <col customWidth="1" max="2" min="2" style="18" width="15.5703125"/>
-    <col customWidth="1" max="3" min="3" style="18" width="18"/>
-    <col customWidth="1" max="5" min="5" style="18" width="13.140625"/>
-    <col customWidth="1" max="6" min="6" style="18" width="14.28515625"/>
-    <col customWidth="1" max="7" min="7" style="18" width="10.42578125"/>
-    <col customWidth="1" max="8" min="8" style="18" width="3.28515625"/>
+    <col customWidth="1" max="1" min="1" style="20" width="12.85546875"/>
+    <col customWidth="1" max="2" min="2" style="20" width="15.5703125"/>
+    <col customWidth="1" max="3" min="3" style="20" width="18"/>
+    <col customWidth="1" max="5" min="5" style="20" width="13.140625"/>
+    <col customWidth="1" max="6" min="6" style="20" width="14.28515625"/>
+    <col customWidth="1" max="7" min="7" style="20" width="10.42578125"/>
+    <col customWidth="1" max="8" min="8" style="20" width="3.28515625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="18" r="1" s="18" spans="1:7">
-      <c r="C1" s="13" t="s">
+    <row customHeight="1" ht="18" r="1" s="20" spans="1:7">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3473,17 +3486,17 @@
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>28</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="B3" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="15" t="n">
+      <c r="F3" s="14" t="n">
         <v>3077</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="18" spans="1:7">
+    <row customHeight="1" ht="30" r="5" s="20" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -3698,13 +3711,13 @@
       <c r="G26" s="2" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="19" t="s">
         <v>16</v>
       </c>
     </row>
@@ -3733,17 +3746,17 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15" outlineLevelCol="0"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="18" width="14.28515625"/>
-    <col customWidth="1" max="2" min="2" style="18" width="15.5703125"/>
-    <col customWidth="1" max="3" min="3" style="18" width="18"/>
-    <col customWidth="1" max="5" min="5" style="18" width="13.140625"/>
-    <col customWidth="1" max="6" min="6" style="18" width="14.28515625"/>
-    <col customWidth="1" max="7" min="7" style="18" width="10.42578125"/>
-    <col customWidth="1" max="8" min="8" style="18" width="3.28515625"/>
+    <col customWidth="1" max="1" min="1" style="20" width="14.28515625"/>
+    <col customWidth="1" max="2" min="2" style="20" width="15.5703125"/>
+    <col customWidth="1" max="3" min="3" style="20" width="18"/>
+    <col customWidth="1" max="5" min="5" style="20" width="13.140625"/>
+    <col customWidth="1" max="6" min="6" style="20" width="14.28515625"/>
+    <col customWidth="1" max="7" min="7" style="20" width="10.42578125"/>
+    <col customWidth="1" max="8" min="8" style="20" width="3.28515625"/>
   </cols>
   <sheetData>
-    <row customHeight="1" ht="18" r="1" s="18" spans="1:7">
-      <c r="C1" s="13" t="s">
+    <row customHeight="1" ht="18" r="1" s="20" spans="1:7">
+      <c r="C1" s="12" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3764,17 +3777,17 @@
       <c r="A3" t="s">
         <v>19</v>
       </c>
-      <c r="B3" s="14" t="s">
-        <v>29</v>
-      </c>
-      <c r="E3" s="12" t="s">
+      <c r="B3" s="13" t="s">
+        <v>31</v>
+      </c>
+      <c r="E3" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="F3" s="15" t="n">
+      <c r="F3" s="14" t="n">
         <v>5128</v>
       </c>
     </row>
-    <row customHeight="1" ht="30" r="5" s="18" spans="1:7">
+    <row customHeight="1" ht="30" r="5" s="20" spans="1:7">
       <c r="A5" s="5" t="s">
         <v>6</v>
       </c>
@@ -3989,13 +4002,13 @@
       <c r="G26" s="2" t="n"/>
     </row>
     <row r="29" spans="1:7">
-      <c r="A29" s="17" t="s">
+      <c r="A29" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="C29" s="21" t="s">
+      <c r="C29" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="F29" s="17" t="s">
+      <c r="F29" s="19" t="s">
         <v>16</v>
       </c>
     </row>

--- a/spare_parts/p_spare.xlsx
+++ b/spare_parts/p_spare.xlsx
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
   <si>
     <t>ТОВ "ЦВГ Україна" м. Львів</t>
   </si>
@@ -126,6 +126,9 @@
   </si>
   <si>
     <t>Мица В.</t>
+  </si>
+  <si>
+    <t>anvil test2</t>
   </si>
 </sst>
 </file>
@@ -1202,36 +1205,66 @@
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="n"/>
-      <c r="B8" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="15" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
+      <c r="B8" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>80002223</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>1000003</v>
+      </c>
       <c r="G8" s="2" t="n"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="n"/>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="15" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
+      <c r="B9" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>80000571</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>5</v>
+      </c>
       <c r="G9" s="2" t="n"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="n"/>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="15" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
+      <c r="B10" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>80000571</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>6</v>
+      </c>
       <c r="G10" s="2" t="n"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="n"/>
-      <c r="B11" s="2" t="n"/>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" s="2" t="n"/>
       <c r="D11" s="15" t="n"/>
       <c r="E11" s="2" t="n"/>

--- a/spare_parts/p_spare.xlsx
+++ b/spare_parts/p_spare.xlsx
@@ -104,6 +104,9 @@
     <t>1</t>
   </si>
   <si>
+    <t>anvil test2</t>
+  </si>
+  <si>
     <t>Брездень О.</t>
   </si>
   <si>
@@ -126,9 +129,6 @@
   </si>
   <si>
     <t>Мица В.</t>
-  </si>
-  <si>
-    <t>anvil test2</t>
   </si>
 </sst>
 </file>
@@ -1133,7 +1133,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>21</v>
@@ -1228,7 +1228,7 @@
         <v>2</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D9" s="15" t="s">
         <v>24</v>
@@ -1247,7 +1247,7 @@
         <v>5</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>33</v>
+        <v>25</v>
       </c>
       <c r="D10" s="15" t="s">
         <v>24</v>
@@ -1817,36 +1817,66 @@
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
+      <c r="B7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>80000571</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>7</v>
+      </c>
       <c r="G7" s="2" t="n"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="n"/>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
+      <c r="B8" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>80000571</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>8</v>
+      </c>
       <c r="G8" s="2" t="n"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="n"/>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
+      <c r="B9" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>80000571</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>9</v>
+      </c>
       <c r="G9" s="2" t="n"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="n"/>
-      <c r="B10" s="2" t="n"/>
+      <c r="B10" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C10" s="2" t="n"/>
       <c r="D10" s="2" t="n"/>
       <c r="E10" s="2" t="n"/>
@@ -2065,7 +2095,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>21</v>
@@ -2356,7 +2386,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>21</v>
@@ -2647,7 +2677,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>21</v>
@@ -2938,7 +2968,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>21</v>
@@ -2972,54 +3002,104 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" s="2" t="n"/>
-      <c r="B6" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="n"/>
-      <c r="D6" s="2" t="n"/>
-      <c r="E6" s="2" t="n"/>
-      <c r="F6" s="2" t="n"/>
+      <c r="B6" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>80000571</v>
+      </c>
+      <c r="F6" s="2" t="n">
+        <v>16</v>
+      </c>
       <c r="G6" s="2" t="n"/>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" s="2" t="n"/>
-      <c r="B7" s="2" t="n"/>
-      <c r="C7" s="2" t="n"/>
-      <c r="D7" s="2" t="n"/>
-      <c r="E7" s="2" t="n"/>
-      <c r="F7" s="2" t="n"/>
+      <c r="B7" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7" s="2" t="n">
+        <v>80000571</v>
+      </c>
+      <c r="F7" s="2" t="n">
+        <v>16</v>
+      </c>
       <c r="G7" s="2" t="n"/>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" s="2" t="n"/>
-      <c r="B8" s="2" t="n"/>
-      <c r="C8" s="2" t="n"/>
-      <c r="D8" s="2" t="n"/>
-      <c r="E8" s="2" t="n"/>
-      <c r="F8" s="2" t="n"/>
+      <c r="B8" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E8" s="2" t="n">
+        <v>80000571</v>
+      </c>
+      <c r="F8" s="2" t="n">
+        <v>17</v>
+      </c>
       <c r="G8" s="2" t="n"/>
     </row>
     <row r="9" spans="1:7">
       <c r="A9" s="2" t="n"/>
-      <c r="B9" s="2" t="n"/>
-      <c r="C9" s="2" t="n"/>
-      <c r="D9" s="2" t="n"/>
-      <c r="E9" s="2" t="n"/>
-      <c r="F9" s="2" t="n"/>
+      <c r="B9" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E9" s="2" t="n">
+        <v>80000571</v>
+      </c>
+      <c r="F9" s="2" t="n">
+        <v>17</v>
+      </c>
       <c r="G9" s="2" t="n"/>
     </row>
     <row r="10" spans="1:7">
       <c r="A10" s="2" t="n"/>
-      <c r="B10" s="2" t="n"/>
-      <c r="C10" s="2" t="n"/>
-      <c r="D10" s="2" t="n"/>
-      <c r="E10" s="2" t="n"/>
-      <c r="F10" s="2" t="n"/>
+      <c r="B10" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D10" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E10" s="2" t="n">
+        <v>80000571</v>
+      </c>
+      <c r="F10" s="2" t="n">
+        <v>18</v>
+      </c>
       <c r="G10" s="2" t="n"/>
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="n"/>
-      <c r="B11" s="2" t="n"/>
+      <c r="B11" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C11" s="2" t="n"/>
       <c r="D11" s="2" t="n"/>
       <c r="E11" s="2" t="n"/>
@@ -3229,7 +3309,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>21</v>
@@ -3520,7 +3600,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>21</v>
@@ -3811,7 +3891,7 @@
         <v>19</v>
       </c>
       <c r="B3" s="13" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="E3" s="11" t="s">
         <v>21</v>

--- a/spare_parts/p_spare.xlsx
+++ b/spare_parts/p_spare.xlsx
@@ -1262,36 +1262,66 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="2" t="n"/>
-      <c r="B11" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C11" s="2" t="n"/>
-      <c r="D11" s="15" t="n"/>
-      <c r="E11" s="2" t="n"/>
-      <c r="F11" s="2" t="n"/>
+      <c r="B11" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E11" s="2" t="n">
+        <v>80000571</v>
+      </c>
+      <c r="F11" s="2" t="n">
+        <v>19</v>
+      </c>
       <c r="G11" s="2" t="n"/>
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="2" t="n"/>
-      <c r="B12" s="2" t="n"/>
-      <c r="C12" s="2" t="n"/>
-      <c r="D12" s="15" t="n"/>
-      <c r="E12" s="2" t="n"/>
-      <c r="F12" s="2" t="n"/>
+      <c r="B12" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>80000571</v>
+      </c>
+      <c r="F12" s="2" t="n">
+        <v>20</v>
+      </c>
       <c r="G12" s="2" t="n"/>
     </row>
     <row r="13" spans="1:7">
       <c r="A13" s="2" t="n"/>
-      <c r="B13" s="2" t="n"/>
-      <c r="C13" s="2" t="n"/>
-      <c r="D13" s="15" t="n"/>
-      <c r="E13" s="2" t="n"/>
-      <c r="F13" s="2" t="n"/>
+      <c r="B13" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>24</v>
+      </c>
+      <c r="E13" s="2" t="n">
+        <v>80000571</v>
+      </c>
+      <c r="F13" s="2" t="n">
+        <v>21</v>
+      </c>
       <c r="G13" s="2" t="n"/>
     </row>
     <row r="14" spans="1:7">
       <c r="A14" s="2" t="n"/>
-      <c r="B14" s="2" t="n"/>
+      <c r="B14" s="2" t="s">
+        <v>13</v>
+      </c>
       <c r="C14" s="2" t="n"/>
       <c r="D14" s="15" t="n"/>
       <c r="E14" s="2" t="n"/>
